--- a/downloaded_files/MDPS470_Tutorial-35718.xlsx
+++ b/downloaded_files/MDPS470_Tutorial-35718.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -379,6 +379,15 @@
   </x:si>
   <x:si>
     <x:t>Meriam Tamer Saddik Hanna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى شادي محمود محمد الشجيع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Shady Mahmoud Mohamed Elshagie</x:t>
   </x:si>
   <x:si>
     <x:t>1210083</x:t>
@@ -593,7 +602,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -893,7 +902,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T51"/>
+  <x:dimension ref="A1:T52"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2230,7 +2239,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6647589468</x:v>
+        <x:v>45927.4302520486</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2262,7 +2271,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45906.6647589468</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2294,7 +2303,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6652153125</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2326,7 +2335,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45914.4414183218</x:v>
+        <x:v>45906.6652153125</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2358,7 +2367,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45914.4414183218</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2390,7 +2399,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.4155925926</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2422,7 +2431,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.4155925926</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2454,7 +2463,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45912.0420412847</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2486,7 +2495,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45912.0412534375</x:v>
+        <x:v>45912.0420412847</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2518,7 +2527,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45912.0412534375</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2550,7 +2559,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45912.0409371181</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2567,6 +2576,38 @@
       <x:c r="R51" s="2" t="s"/>
       <x:c r="S51" s="2" t="s"/>
       <x:c r="T51" s="2" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:20">
+      <x:c r="A52" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="E52" s="3">
+        <x:v>45912.0409371181</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s"/>
+      <x:c r="G52" s="2" t="s"/>
+      <x:c r="H52" s="2" t="s"/>
+      <x:c r="I52" s="2" t="s"/>
+      <x:c r="J52" s="2" t="s"/>
+      <x:c r="K52" s="2" t="s"/>
+      <x:c r="L52" s="2" t="s"/>
+      <x:c r="M52" s="2" t="s"/>
+      <x:c r="N52" s="2" t="s"/>
+      <x:c r="O52" s="2" t="s"/>
+      <x:c r="P52" s="2" t="s"/>
+      <x:c r="Q52" s="2" t="s"/>
+      <x:c r="R52" s="2" t="s"/>
+      <x:c r="S52" s="2" t="s"/>
+      <x:c r="T52" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS470_Tutorial-35718.xlsx
+++ b/downloaded_files/MDPS470_Tutorial-35718.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أحمد خالد عبد الهادي ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِAhmed Khaled Abd Al-hady Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210180</x:t>
@@ -602,7 +611,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E53" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -902,7 +911,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T52"/>
+  <x:dimension ref="A1:T53"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -993,7 +1002,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6649607986</x:v>
+        <x:v>45928.6741772338</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -1025,7 +1034,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4147820602</x:v>
+        <x:v>45906.6649607986</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1057,7 +1066,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4778943287</x:v>
+        <x:v>45906.4147820602</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1089,7 +1098,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6650118403</x:v>
+        <x:v>45906.4778943287</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1121,7 +1130,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6647093403</x:v>
+        <x:v>45906.6650118403</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1153,7 +1162,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6650357292</x:v>
+        <x:v>45906.6647093403</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1185,7 +1194,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.0418723727</x:v>
+        <x:v>45906.6650357292</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1217,7 +1226,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.0419709491</x:v>
+        <x:v>45912.0418723727</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1249,7 +1258,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.0415292014</x:v>
+        <x:v>45912.0419709491</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1281,7 +1290,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6651225347</x:v>
+        <x:v>45912.0415292014</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1313,7 +1322,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.0413709491</x:v>
+        <x:v>45906.6651225347</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1345,7 +1354,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6649211458</x:v>
+        <x:v>45912.0413709491</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1377,7 +1386,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6652719907</x:v>
+        <x:v>45906.6649211458</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1405,9 +1414,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45916.0001633449</x:v>
+        <x:v>45906.6652719907</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1430,16 +1441,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45906.6646397338</x:v>
+        <x:v>45916.0001633449</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1471,7 +1480,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6648852199</x:v>
+        <x:v>45906.6646397338</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1503,7 +1512,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647797454</x:v>
+        <x:v>45906.6648852199</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1535,7 +1544,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45906.6647797454</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1567,7 +1576,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6650502315</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1599,7 +1608,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6644273495</x:v>
+        <x:v>45906.6650502315</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1631,7 +1640,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6644226042</x:v>
+        <x:v>45906.6644273495</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1663,7 +1672,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4145265046</x:v>
+        <x:v>45906.6644226042</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1695,7 +1704,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.041040162</x:v>
+        <x:v>45906.4145265046</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1727,7 +1736,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6650795139</x:v>
+        <x:v>45912.041040162</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1759,7 +1768,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45906.6650795139</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1791,7 +1800,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.0414127662</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1823,7 +1832,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45912.0414127662</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1855,7 +1864,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6652276273</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1887,7 +1896,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4151256944</x:v>
+        <x:v>45906.6652276273</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1919,7 +1928,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6646825232</x:v>
+        <x:v>45906.4151256944</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1951,7 +1960,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.533668287</x:v>
+        <x:v>45906.6646825232</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1983,7 +1992,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6651860301</x:v>
+        <x:v>45914.533668287</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2015,7 +2024,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6645832986</x:v>
+        <x:v>45906.6651860301</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2047,7 +2056,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45916.7541029745</x:v>
+        <x:v>45906.6645832986</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2079,7 +2088,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.0412971412</x:v>
+        <x:v>45916.7541029745</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2111,7 +2120,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6650076736</x:v>
+        <x:v>45912.0412971412</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2143,7 +2152,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.0414761921</x:v>
+        <x:v>45906.6650076736</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2175,7 +2184,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6650834491</x:v>
+        <x:v>45912.0414761921</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2207,7 +2216,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6649513542</x:v>
+        <x:v>45906.6650834491</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2239,7 +2248,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45927.4302520486</x:v>
+        <x:v>45906.6649513542</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2271,7 +2280,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6647589468</x:v>
+        <x:v>45927.4302520486</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2303,7 +2312,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45906.6647589468</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2335,7 +2344,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6652153125</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2367,7 +2376,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45914.4414183218</x:v>
+        <x:v>45906.6652153125</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2399,7 +2408,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45914.4414183218</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2431,7 +2440,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.4155925926</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2463,7 +2472,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.6645776968</x:v>
+        <x:v>45906.4155925926</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2495,7 +2504,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45912.0420412847</x:v>
+        <x:v>45906.6645776968</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2527,7 +2536,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45912.0412534375</x:v>
+        <x:v>45912.0420412847</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2559,7 +2568,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.4148245023</x:v>
+        <x:v>45912.0412534375</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2591,7 +2600,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45912.0409371181</x:v>
+        <x:v>45906.4148245023</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2608,6 +2617,38 @@
       <x:c r="R52" s="2" t="s"/>
       <x:c r="S52" s="2" t="s"/>
       <x:c r="T52" s="2" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:20">
+      <x:c r="A53" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D53" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="E53" s="3">
+        <x:v>45912.0409371181</x:v>
+      </x:c>
+      <x:c r="F53" s="2" t="s"/>
+      <x:c r="G53" s="2" t="s"/>
+      <x:c r="H53" s="2" t="s"/>
+      <x:c r="I53" s="2" t="s"/>
+      <x:c r="J53" s="2" t="s"/>
+      <x:c r="K53" s="2" t="s"/>
+      <x:c r="L53" s="2" t="s"/>
+      <x:c r="M53" s="2" t="s"/>
+      <x:c r="N53" s="2" t="s"/>
+      <x:c r="O53" s="2" t="s"/>
+      <x:c r="P53" s="2" t="s"/>
+      <x:c r="Q53" s="2" t="s"/>
+      <x:c r="R53" s="2" t="s"/>
+      <x:c r="S53" s="2" t="s"/>
+      <x:c r="T53" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
